--- a/Data/Bystrategi_Grenland/Klima/Luftforurensing/PM10 og NO2 døgn 2014 (KM og FM, mangler).xlsx
+++ b/Data/Bystrategi_Grenland/Klima/Luftforurensing/PM10 og NO2 døgn 2014 (KM og FM, mangler).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://porsgrunnkommune-my.sharepoint.com/personal/margrete_saugestad_porsgrunn_kommune_no/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/even_sannes_riiser_telemarkfylke_no/Documents/Github/Telemark/Data/Bystrategi_Grenland/Klima/Luftforurensing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2206A982-A592-4A73-A72A-7B2B8216AB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{2206A982-A592-4A73-A72A-7B2B8216AB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C74A26B5-FACE-4E6F-83E5-08B595DCD219}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BC26AF2-0A4E-4DF5-8ED1-A175A9BCA985}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{1BC26AF2-0A4E-4DF5-8ED1-A175A9BCA985}"/>
   </bookViews>
   <sheets>
     <sheet name="Tidsserie_2361-2473-2723-2724-1" sheetId="1" r:id="rId1"/>
@@ -910,11 +910,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09E762-C746-442E-A097-6FE31C696F63}">
   <dimension ref="A1:L366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -952,7 +957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>41640</v>
       </c>
@@ -990,7 +995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>41641</v>
       </c>
@@ -1028,7 +1033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>41642</v>
       </c>
@@ -1066,7 +1071,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>41643</v>
       </c>
@@ -1104,7 +1109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>41644</v>
       </c>
@@ -1142,7 +1147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>41645</v>
       </c>
@@ -1180,7 +1185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>41646</v>
       </c>
@@ -1218,7 +1223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>41647</v>
       </c>
@@ -1256,7 +1261,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>41648</v>
       </c>
@@ -1294,7 +1299,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>41649</v>
       </c>
@@ -1332,7 +1337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>41650</v>
       </c>
@@ -1370,7 +1375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>41651</v>
       </c>
@@ -1408,7 +1413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>41652</v>
       </c>
@@ -1446,7 +1451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>41653</v>
       </c>
@@ -1484,7 +1489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>41654</v>
       </c>
@@ -1522,7 +1527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>41655</v>
       </c>
@@ -1560,7 +1565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>41656</v>
       </c>
@@ -1598,7 +1603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>41657</v>
       </c>
@@ -1636,7 +1641,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>41658</v>
       </c>
@@ -1674,7 +1679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>41659</v>
       </c>
@@ -1712,7 +1717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>41660</v>
       </c>
@@ -1750,7 +1755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>41661</v>
       </c>
@@ -1788,7 +1793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>41662</v>
       </c>
@@ -1826,7 +1831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>41663</v>
       </c>
@@ -1864,7 +1869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>41664</v>
       </c>
@@ -1902,7 +1907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>41665</v>
       </c>
@@ -1940,7 +1945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>41666</v>
       </c>
@@ -1978,7 +1983,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>41667</v>
       </c>
@@ -2016,7 +2021,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>41668</v>
       </c>
@@ -2054,7 +2059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>41669</v>
       </c>
@@ -2092,7 +2097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>41670</v>
       </c>
@@ -2130,7 +2135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>41671</v>
       </c>
@@ -2168,7 +2173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>41672</v>
       </c>
@@ -2206,7 +2211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>41673</v>
       </c>
@@ -2244,7 +2249,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>41674</v>
       </c>
@@ -2282,7 +2287,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>41675</v>
       </c>
@@ -2320,7 +2325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>41676</v>
       </c>
@@ -2358,7 +2363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>41677</v>
       </c>
@@ -2396,7 +2401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>41678</v>
       </c>
@@ -2434,7 +2439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>41679</v>
       </c>
@@ -2472,7 +2477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41680</v>
       </c>
@@ -2510,7 +2515,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41681</v>
       </c>
@@ -2548,7 +2553,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>41682</v>
       </c>
@@ -2586,7 +2591,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>41683</v>
       </c>
@@ -2624,7 +2629,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>41684</v>
       </c>
@@ -2662,7 +2667,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>41685</v>
       </c>
@@ -2700,7 +2705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>41686</v>
       </c>
@@ -2738,7 +2743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>41687</v>
       </c>
@@ -2776,7 +2781,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>41688</v>
       </c>
@@ -2814,7 +2819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>41689</v>
       </c>
@@ -2852,7 +2857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>41690</v>
       </c>
@@ -2890,7 +2895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>41691</v>
       </c>
@@ -2928,7 +2933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>41692</v>
       </c>
@@ -2966,7 +2971,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>41693</v>
       </c>
@@ -3004,7 +3009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>41694</v>
       </c>
@@ -3036,7 +3041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>41695</v>
       </c>
@@ -3074,7 +3079,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>41696</v>
       </c>
@@ -3112,7 +3117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>41697</v>
       </c>
@@ -3150,7 +3155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>41698</v>
       </c>
@@ -3188,7 +3193,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>41699</v>
       </c>
@@ -3226,7 +3231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>41700</v>
       </c>
@@ -3264,7 +3269,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>41701</v>
       </c>
@@ -3302,7 +3307,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>41702</v>
       </c>
@@ -3340,7 +3345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>41703</v>
       </c>
@@ -3378,7 +3383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>41704</v>
       </c>
@@ -3416,7 +3421,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>41705</v>
       </c>
@@ -3454,7 +3459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>41706</v>
       </c>
@@ -3486,7 +3491,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>41707</v>
       </c>
@@ -3518,7 +3523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>41708</v>
       </c>
@@ -3550,7 +3555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>41709</v>
       </c>
@@ -3588,7 +3593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>41710</v>
       </c>
@@ -3626,7 +3631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>41711</v>
       </c>
@@ -3664,7 +3669,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>41712</v>
       </c>
@@ -3702,7 +3707,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>41713</v>
       </c>
@@ -3740,7 +3745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>41714</v>
       </c>
@@ -3778,7 +3783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>41715</v>
       </c>
@@ -3816,7 +3821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>41716</v>
       </c>
@@ -3854,7 +3859,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>41717</v>
       </c>
@@ -3892,7 +3897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>41718</v>
       </c>
@@ -3930,7 +3935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>41719</v>
       </c>
@@ -3968,7 +3973,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>41720</v>
       </c>
@@ -4006,7 +4011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>41721</v>
       </c>
@@ -4044,7 +4049,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>41722</v>
       </c>
@@ -4082,7 +4087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>41723</v>
       </c>
@@ -4114,7 +4119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>41724</v>
       </c>
@@ -4146,7 +4151,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>41725</v>
       </c>
@@ -4178,7 +4183,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>41726</v>
       </c>
@@ -4216,7 +4221,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>41727</v>
       </c>
@@ -4254,7 +4259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>41728</v>
       </c>
@@ -4292,7 +4297,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>41729</v>
       </c>
@@ -4330,7 +4335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>41730</v>
       </c>
@@ -4368,7 +4373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>41731</v>
       </c>
@@ -4406,7 +4411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>41732</v>
       </c>
@@ -4444,7 +4449,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>41733</v>
       </c>
@@ -4482,7 +4487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>41734</v>
       </c>
@@ -4520,7 +4525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>41735</v>
       </c>
@@ -4558,7 +4563,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>41736</v>
       </c>
@@ -4596,7 +4601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>41737</v>
       </c>
@@ -4634,7 +4639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>41738</v>
       </c>
@@ -4672,7 +4677,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>41739</v>
       </c>
@@ -4710,7 +4715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>41740</v>
       </c>
@@ -4748,7 +4753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>41741</v>
       </c>
@@ -4786,7 +4791,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>41742</v>
       </c>
@@ -4824,7 +4829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>41743</v>
       </c>
@@ -4862,7 +4867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>41744</v>
       </c>
@@ -4900,7 +4905,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>41745</v>
       </c>
@@ -4938,7 +4943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>41746</v>
       </c>
@@ -4976,7 +4981,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>41747</v>
       </c>
@@ -5014,7 +5019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>41748</v>
       </c>
@@ -5052,7 +5057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>41749</v>
       </c>
@@ -5090,7 +5095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>41750</v>
       </c>
@@ -5128,7 +5133,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>41751</v>
       </c>
@@ -5166,7 +5171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>41752</v>
       </c>
@@ -5204,7 +5209,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>41753</v>
       </c>
@@ -5242,7 +5247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>41754</v>
       </c>
@@ -5280,7 +5285,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>41755</v>
       </c>
@@ -5318,7 +5323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>41756</v>
       </c>
@@ -5356,7 +5361,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>41757</v>
       </c>
@@ -5394,7 +5399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>41758</v>
       </c>
@@ -5426,7 +5431,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>41759</v>
       </c>
@@ -5458,7 +5463,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>41760</v>
       </c>
@@ -5496,7 +5501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>41761</v>
       </c>
@@ -5534,7 +5539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>41762</v>
       </c>
@@ -5572,7 +5577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>41763</v>
       </c>
@@ -5610,7 +5615,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>41764</v>
       </c>
@@ -5624,7 +5629,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>41765</v>
       </c>
@@ -5644,7 +5649,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>41766</v>
       </c>
@@ -5676,7 +5681,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>41767</v>
       </c>
@@ -5708,7 +5713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>41768</v>
       </c>
@@ -5740,7 +5745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>41769</v>
       </c>
@@ -5772,7 +5777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>41770</v>
       </c>
@@ -5804,7 +5809,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>41771</v>
       </c>
@@ -5836,7 +5841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>41772</v>
       </c>
@@ -5868,7 +5873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>41773</v>
       </c>
@@ -5900,7 +5905,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>41774</v>
       </c>
@@ -5938,7 +5943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>41775</v>
       </c>
@@ -5976,7 +5981,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>41776</v>
       </c>
@@ -6014,7 +6019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>41777</v>
       </c>
@@ -6052,7 +6057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>41778</v>
       </c>
@@ -6090,7 +6095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>41779</v>
       </c>
@@ -6122,7 +6127,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>41780</v>
       </c>
@@ -6154,7 +6159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>41781</v>
       </c>
@@ -6192,7 +6197,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>41782</v>
       </c>
@@ -6230,7 +6235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>41783</v>
       </c>
@@ -6268,7 +6273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>41784</v>
       </c>
@@ -6306,7 +6311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>41785</v>
       </c>
@@ -6344,7 +6349,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>41786</v>
       </c>
@@ -6382,7 +6387,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>41787</v>
       </c>
@@ -6420,7 +6425,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>41788</v>
       </c>
@@ -6458,7 +6463,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>41789</v>
       </c>
@@ -6496,7 +6501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>41790</v>
       </c>
@@ -6534,7 +6539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>41791</v>
       </c>
@@ -6572,7 +6577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>41792</v>
       </c>
@@ -6610,7 +6615,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>41793</v>
       </c>
@@ -6648,7 +6653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>41794</v>
       </c>
@@ -6686,7 +6691,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>41795</v>
       </c>
@@ -6724,7 +6729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>41796</v>
       </c>
@@ -6762,7 +6767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>41797</v>
       </c>
@@ -6800,7 +6805,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>41798</v>
       </c>
@@ -6838,7 +6843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>41799</v>
       </c>
@@ -6876,7 +6881,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>41800</v>
       </c>
@@ -6914,7 +6919,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>41801</v>
       </c>
@@ -6952,7 +6957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>41802</v>
       </c>
@@ -6990,7 +6995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>41803</v>
       </c>
@@ -7028,7 +7033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>41804</v>
       </c>
@@ -7066,7 +7071,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>41805</v>
       </c>
@@ -7104,7 +7109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>41806</v>
       </c>
@@ -7142,7 +7147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>41807</v>
       </c>
@@ -7180,7 +7185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>41808</v>
       </c>
@@ -7218,7 +7223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>41809</v>
       </c>
@@ -7256,7 +7261,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>41810</v>
       </c>
@@ -7294,7 +7299,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>41811</v>
       </c>
@@ -7332,7 +7337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>41812</v>
       </c>
@@ -7370,7 +7375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>41813</v>
       </c>
@@ -7408,7 +7413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>41814</v>
       </c>
@@ -7446,7 +7451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>41815</v>
       </c>
@@ -7484,7 +7489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>41816</v>
       </c>
@@ -7522,7 +7527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>41817</v>
       </c>
@@ -7560,7 +7565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>41818</v>
       </c>
@@ -7598,7 +7603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>41819</v>
       </c>
@@ -7636,7 +7641,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>41820</v>
       </c>
@@ -7674,7 +7679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>41821</v>
       </c>
@@ -7712,7 +7717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>41822</v>
       </c>
@@ -7750,7 +7755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>41823</v>
       </c>
@@ -7788,7 +7793,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>41824</v>
       </c>
@@ -7826,7 +7831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>41825</v>
       </c>
@@ -7864,7 +7869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>41826</v>
       </c>
@@ -7902,7 +7907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>41827</v>
       </c>
@@ -7940,7 +7945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>41828</v>
       </c>
@@ -7966,7 +7971,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>41829</v>
       </c>
@@ -7992,7 +7997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>41830</v>
       </c>
@@ -8024,7 +8029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>41831</v>
       </c>
@@ -8062,7 +8067,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>41832</v>
       </c>
@@ -8100,7 +8105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>41833</v>
       </c>
@@ -8138,7 +8143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>41834</v>
       </c>
@@ -8176,7 +8181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>41835</v>
       </c>
@@ -8214,7 +8219,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>41836</v>
       </c>
@@ -8252,7 +8257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>41837</v>
       </c>
@@ -8290,7 +8295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>41838</v>
       </c>
@@ -8328,7 +8333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>41839</v>
       </c>
@@ -8366,7 +8371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>41840</v>
       </c>
@@ -8404,7 +8409,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>41841</v>
       </c>
@@ -8442,7 +8447,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>41842</v>
       </c>
@@ -8480,7 +8485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>41843</v>
       </c>
@@ -8518,7 +8523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>41844</v>
       </c>
@@ -8556,7 +8561,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>41845</v>
       </c>
@@ -8594,7 +8599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>41846</v>
       </c>
@@ -8632,7 +8637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>41847</v>
       </c>
@@ -8670,7 +8675,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>41848</v>
       </c>
@@ -8708,7 +8713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>41849</v>
       </c>
@@ -8746,7 +8751,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>41850</v>
       </c>
@@ -8784,7 +8789,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>41851</v>
       </c>
@@ -8822,7 +8827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>41852</v>
       </c>
@@ -8860,7 +8865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>41853</v>
       </c>
@@ -8898,7 +8903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>41854</v>
       </c>
@@ -8936,7 +8941,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>41855</v>
       </c>
@@ -8968,7 +8973,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>41856</v>
       </c>
@@ -9006,7 +9011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>41857</v>
       </c>
@@ -9038,7 +9043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>41858</v>
       </c>
@@ -9070,7 +9075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>41859</v>
       </c>
@@ -9108,7 +9113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>41860</v>
       </c>
@@ -9146,7 +9151,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>41861</v>
       </c>
@@ -9184,7 +9189,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>41862</v>
       </c>
@@ -9222,7 +9227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>41863</v>
       </c>
@@ -9260,7 +9265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>41864</v>
       </c>
@@ -9298,7 +9303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>41865</v>
       </c>
@@ -9336,7 +9341,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>41866</v>
       </c>
@@ -9374,7 +9379,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>41867</v>
       </c>
@@ -9412,7 +9417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>41868</v>
       </c>
@@ -9450,7 +9455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>41869</v>
       </c>
@@ -9488,7 +9493,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>41870</v>
       </c>
@@ -9514,7 +9519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>41871</v>
       </c>
@@ -9540,7 +9545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>41872</v>
       </c>
@@ -9572,7 +9577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>41873</v>
       </c>
@@ -9604,7 +9609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>41874</v>
       </c>
@@ -9636,7 +9641,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>41875</v>
       </c>
@@ -9668,7 +9673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>41876</v>
       </c>
@@ -9700,7 +9705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>41877</v>
       </c>
@@ -9732,7 +9737,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>41878</v>
       </c>
@@ -9770,7 +9775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>41879</v>
       </c>
@@ -9808,7 +9813,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>41880</v>
       </c>
@@ -9846,7 +9851,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>41881</v>
       </c>
@@ -9884,7 +9889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>41882</v>
       </c>
@@ -9922,7 +9927,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>41883</v>
       </c>
@@ -9960,7 +9965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>41884</v>
       </c>
@@ -9998,7 +10003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>41885</v>
       </c>
@@ -10036,7 +10041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>41886</v>
       </c>
@@ -10074,7 +10079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>41887</v>
       </c>
@@ -10112,7 +10117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>41888</v>
       </c>
@@ -10150,7 +10155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>41889</v>
       </c>
@@ -10182,7 +10187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>41890</v>
       </c>
@@ -10202,7 +10207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>41891</v>
       </c>
@@ -10222,7 +10227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>41892</v>
       </c>
@@ -10254,7 +10259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>41893</v>
       </c>
@@ -10286,7 +10291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>41894</v>
       </c>
@@ -10318,7 +10323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>41895</v>
       </c>
@@ -10350,7 +10355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>41896</v>
       </c>
@@ -10382,7 +10387,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>41897</v>
       </c>
@@ -10414,7 +10419,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>41898</v>
       </c>
@@ -10446,7 +10451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>41899</v>
       </c>
@@ -10478,7 +10483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>41900</v>
       </c>
@@ -10510,7 +10515,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>41901</v>
       </c>
@@ -10542,7 +10547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>41902</v>
       </c>
@@ -10574,7 +10579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>41903</v>
       </c>
@@ -10606,7 +10611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>41904</v>
       </c>
@@ -10638,7 +10643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>41905</v>
       </c>
@@ -10670,7 +10675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>41906</v>
       </c>
@@ -10702,7 +10707,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>41907</v>
       </c>
@@ -10734,7 +10739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>41908</v>
       </c>
@@ -10766,7 +10771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>41909</v>
       </c>
@@ -10798,7 +10803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>41910</v>
       </c>
@@ -10830,7 +10835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>41911</v>
       </c>
@@ -10862,7 +10867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>41912</v>
       </c>
@@ -10894,7 +10899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>41913</v>
       </c>
@@ -10926,7 +10931,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>41914</v>
       </c>
@@ -10958,7 +10963,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>41915</v>
       </c>
@@ -10990,7 +10995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>41916</v>
       </c>
@@ -11028,7 +11033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>41917</v>
       </c>
@@ -11066,7 +11071,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>41918</v>
       </c>
@@ -11104,7 +11109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>41919</v>
       </c>
@@ -11136,7 +11141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>41920</v>
       </c>
@@ -11174,7 +11179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>41921</v>
       </c>
@@ -11212,7 +11217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>41922</v>
       </c>
@@ -11250,7 +11255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>41923</v>
       </c>
@@ -11288,7 +11293,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>41924</v>
       </c>
@@ -11326,7 +11331,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>41925</v>
       </c>
@@ -11364,7 +11369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>41926</v>
       </c>
@@ -11402,7 +11407,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>41927</v>
       </c>
@@ -11440,7 +11445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>41928</v>
       </c>
@@ -11478,7 +11483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>41929</v>
       </c>
@@ -11516,7 +11521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>41930</v>
       </c>
@@ -11554,7 +11559,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>41931</v>
       </c>
@@ -11592,7 +11597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>41932</v>
       </c>
@@ -11630,7 +11635,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>41933</v>
       </c>
@@ -11668,7 +11673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>41934</v>
       </c>
@@ -11706,7 +11711,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>41935</v>
       </c>
@@ -11744,7 +11749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>41936</v>
       </c>
@@ -11782,7 +11787,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>41937</v>
       </c>
@@ -11820,7 +11825,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>41938</v>
       </c>
@@ -11858,7 +11863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>41939</v>
       </c>
@@ -11896,7 +11901,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>41940</v>
       </c>
@@ -11934,7 +11939,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>41941</v>
       </c>
@@ -11972,7 +11977,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>41942</v>
       </c>
@@ -12010,7 +12015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>41943</v>
       </c>
@@ -12048,7 +12053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>41944</v>
       </c>
@@ -12086,7 +12091,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>41945</v>
       </c>
@@ -12124,7 +12129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>41946</v>
       </c>
@@ -12162,7 +12167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>41947</v>
       </c>
@@ -12200,7 +12205,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>41948</v>
       </c>
@@ -12238,7 +12243,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>41949</v>
       </c>
@@ -12276,7 +12281,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>41950</v>
       </c>
@@ -12314,7 +12319,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>41951</v>
       </c>
@@ -12352,7 +12357,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>41952</v>
       </c>
@@ -12390,7 +12395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>41953</v>
       </c>
@@ -12428,7 +12433,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>41954</v>
       </c>
@@ -12466,7 +12471,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>41955</v>
       </c>
@@ -12504,7 +12509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>41956</v>
       </c>
@@ -12542,7 +12547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>41957</v>
       </c>
@@ -12580,7 +12585,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>41958</v>
       </c>
@@ -12618,7 +12623,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>41959</v>
       </c>
@@ -12656,7 +12661,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>41960</v>
       </c>
@@ -12694,7 +12699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>41961</v>
       </c>
@@ -12732,7 +12737,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>41962</v>
       </c>
@@ -12770,7 +12775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>41963</v>
       </c>
@@ -12808,7 +12813,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>41964</v>
       </c>
@@ -12846,7 +12851,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>41965</v>
       </c>
@@ -12878,7 +12883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>41966</v>
       </c>
@@ -12916,7 +12921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>41967</v>
       </c>
@@ -12954,7 +12959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>41968</v>
       </c>
@@ -12986,7 +12991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>41969</v>
       </c>
@@ -13018,7 +13023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>41970</v>
       </c>
@@ -13056,7 +13061,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>41971</v>
       </c>
@@ -13094,7 +13099,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>41972</v>
       </c>
@@ -13126,7 +13131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>41973</v>
       </c>
@@ -13158,7 +13163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>41974</v>
       </c>
@@ -13190,7 +13195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>41975</v>
       </c>
@@ -13222,7 +13227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>41976</v>
       </c>
@@ -13254,7 +13259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>41977</v>
       </c>
@@ -13280,7 +13285,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>41978</v>
       </c>
@@ -13318,7 +13323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>41979</v>
       </c>
@@ -13350,7 +13355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>41980</v>
       </c>
@@ -13382,7 +13387,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>41981</v>
       </c>
@@ -13420,7 +13425,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>41982</v>
       </c>
@@ -13452,7 +13457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>41983</v>
       </c>
@@ -13490,7 +13495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>41984</v>
       </c>
@@ -13528,7 +13533,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>41985</v>
       </c>
@@ -13566,7 +13571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>41986</v>
       </c>
@@ -13604,7 +13609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>41987</v>
       </c>
@@ -13642,7 +13647,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>41988</v>
       </c>
@@ -13680,7 +13685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>41989</v>
       </c>
@@ -13718,7 +13723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>41990</v>
       </c>
@@ -13756,7 +13761,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>41991</v>
       </c>
@@ -13794,7 +13799,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>41992</v>
       </c>
@@ -13832,7 +13837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>41993</v>
       </c>
@@ -13870,7 +13875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>41994</v>
       </c>
@@ -13908,7 +13913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>41995</v>
       </c>
@@ -13946,7 +13951,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>41996</v>
       </c>
@@ -13984,7 +13989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>41997</v>
       </c>
@@ -14022,7 +14027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>41998</v>
       </c>
@@ -14060,7 +14065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>41999</v>
       </c>
@@ -14098,7 +14103,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>42000</v>
       </c>
@@ -14136,7 +14141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>42001</v>
       </c>
@@ -14174,7 +14179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>42002</v>
       </c>
@@ -14212,7 +14217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>42003</v>
       </c>
@@ -14250,7 +14255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>42004</v>
       </c>
